--- a/target/test-classes/config/testdata.xlsx
+++ b/target/test-classes/config/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\eclipse-workspace\PlaywrightPOM\src\test\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C964172-A124-4852-8AED-67CE294DC598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBEF097-4BDC-4197-8DD6-6D161AA07B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -56,6 +56,21 @@
   </si>
   <si>
     <t>login</t>
+  </si>
+  <si>
+    <t>testname</t>
+  </si>
+  <si>
+    <t>Valid ID Invalid Pass</t>
+  </si>
+  <si>
+    <t>Invalid ID Valid Pass</t>
+  </si>
+  <si>
+    <t>Invalid ID and Pass</t>
+  </si>
+  <si>
+    <t>Valid ID and Pass</t>
   </si>
 </sst>
 </file>
@@ -428,15 +443,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2451A7CC-4E2A-4F52-BD84-B535E4F7023A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +461,11 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -457,8 +475,11 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -468,8 +489,11 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -479,8 +503,11 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -489,6 +516,9 @@
       </c>
       <c r="C5" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
